--- a/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E85A80-1731-4786-8B5E-CB9B2398572E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560941F-C450-486B-AC66-53F826443DFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6105" windowWidth="19095" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12840" windowWidth="19095" windowHeight="7275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentLoans" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="83">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -57,9 +57,6 @@
     <t>TEST REMARKS</t>
   </si>
   <si>
-    <t xml:space="preserve">Payrun November-2018 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PAY SUMMARY</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>GBP 50.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Payrun October-2018 </t>
-  </si>
-  <si>
     <t>GBP 0.00</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>TypeStudentLoan</t>
   </si>
   <si>
-    <t>GBP 132.53</t>
-  </si>
-  <si>
     <t>GBP 3000.00</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>GBP 186.53</t>
   </si>
   <si>
-    <t>COAdministrativeCostAmount</t>
-  </si>
-  <si>
     <t>Payrun November-2019</t>
   </si>
   <si>
@@ -262,18 +250,67 @@
   </si>
   <si>
     <t xml:space="preserve">Since there is a deduction amount of 2000 to be deducted in Nov monh hence in my openion Net pay = 1000 </t>
+  </si>
+  <si>
+    <t>GBP 4,354.84</t>
+  </si>
+  <si>
+    <t>This field is not getting displayed</t>
+  </si>
+  <si>
+    <t>This field is not being displayed in report</t>
+  </si>
+  <si>
+    <t>Student loan type is not getting displayed in the Report</t>
+  </si>
+  <si>
+    <t>due to studnt loan non display this field also not displayed</t>
+  </si>
+  <si>
+    <t>GBP 600.00</t>
+  </si>
+  <si>
+    <t>GBP 5,700.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,12 +433,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -469,9 +512,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -482,133 +525,152 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -892,10 +954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -919,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>3</v>
@@ -934,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="2"/>
@@ -947,25 +1012,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="2"/>
@@ -978,25 +1043,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="2"/>
@@ -1010,22 +1075,22 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="2"/>
@@ -1095,18 +1160,18 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="15"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
@@ -1122,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>3</v>
@@ -1137,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="2"/>
@@ -1150,25 +1215,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
@@ -1179,25 +1244,25 @@
     <row r="12" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="2"/>
@@ -1209,22 +1274,22 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="2"/>
@@ -1234,7 +1299,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="D15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1250,17 +1315,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1283,40 +1348,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="48" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>5</v>
@@ -1327,40 +1392,40 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
@@ -1368,22 +1433,40 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="L3" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1">
@@ -1391,20 +1474,38 @@
         <v>10</v>
       </c>
       <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="C4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>25</v>
+      </c>
       <c r="L4" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1469,61 +1570,61 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:14" ht="45.75" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>5</v>
@@ -1534,40 +1635,40 @@
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="42" t="s">
         <v>39</v>
       </c>
+      <c r="I11" s="53" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="46" t="s">
-        <v>20</v>
+      <c r="M11" s="44" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
@@ -1575,23 +1676,39 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
+      <c r="M12" s="44" t="s">
+        <v>15</v>
+      </c>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="24.75" customHeight="1">
@@ -1599,21 +1716,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>25</v>
+      </c>
       <c r="J13" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="M13" s="62" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1627,15 +1760,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1645,15 +1781,15 @@
     <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="37.28515625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1663,73 +1799,70 @@
   <sheetData>
     <row r="1" spans="1:23" ht="48" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="O1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="P1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="R1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="S1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="V1" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="30.75" customHeight="1">
@@ -1737,31 +1870,31 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="48" t="s">
         <v>61</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>64</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>8</v>
@@ -1773,186 +1906,266 @@
         <v>7</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="K3" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="Q3" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>80</v>
+      </c>
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="26.25" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
+      <c r="C4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="10" spans="1:23" ht="30">
       <c r="A10" s="17" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="L10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="M10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="N10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="O10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="P10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="Q10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="R10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="S10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="U10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="V10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:23" ht="27.75" customHeight="1">
       <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="48" t="s">
         <v>61</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>64</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>8</v>
@@ -1964,13 +2177,13 @@
         <v>7</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>7</v>
@@ -1978,77 +2191,153 @@
       <c r="R11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="48" t="s">
+      <c r="S11" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="T11" s="48" t="s">
-        <v>71</v>
-      </c>
       <c r="U11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" customHeight="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="28"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="51"/>
-      <c r="B12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="K12" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
+        <v>19</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="50" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560941F-C450-486B-AC66-53F826443DFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A560941F-C450-486B-AC66-53F826443DFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12840" windowWidth="19095" windowHeight="7275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="StudentLoans" sheetId="1" r:id="rId1"/>
-    <sheet name="StudentLoansCTAEO" sheetId="13" r:id="rId2"/>
-    <sheet name="StudentLoans1Priority1Other" sheetId="14" r:id="rId3"/>
+    <sheet name="StudentLoans" r:id="rId1" sheetId="1"/>
+    <sheet name="StudentLoansCTAEO" r:id="rId2" sheetId="13"/>
+    <sheet name="StudentLoans1Priority1Other" r:id="rId3" sheetId="14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="83">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -277,7 +277,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +434,150 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -447,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -509,177 +656,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="21" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="88">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="17" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="19" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="20" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="14" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -701,10 +908,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -868,21 +1075,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -899,7 +1106,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -953,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -965,18 +1172,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.24609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="98.640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.48828125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.87109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:13">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1214,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:13">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1245,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:13">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1276,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:13">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1386,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1417,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="11" s="1" spans="1:13">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1448,7 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="12" s="1" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="26" t="s">
         <v>23</v>
@@ -1270,7 +1477,7 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="1" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="13" t="s">
@@ -1307,13 +1514,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1325,28 +1532,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="1" spans="1:14">
       <c r="A1" s="17" t="s">
         <v>70</v>
       </c>
@@ -1387,7 +1594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:14">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="3" spans="1:14">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="4" spans="1:14">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1796,7 @@
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:14" ht="45.75" customHeight="1">
+    <row customHeight="1" ht="45.75" r="10" spans="1:14">
       <c r="A10" s="35" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="11" spans="1:14">
       <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="12" spans="1:14">
       <c r="A12" s="41" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1918,7 @@
       </c>
       <c r="N12" s="28"/>
     </row>
-    <row r="13" spans="1:14" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="13" spans="1:14">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -1753,13 +1960,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1771,33 +1978,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="1" spans="1:23">
       <c r="A1" s="17" t="s">
         <v>70</v>
       </c>
@@ -1865,7 +2072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:23">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +2140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="3" spans="1:23">
       <c r="A3" s="49"/>
       <c r="B3" s="12" t="s">
         <v>60</v>
@@ -2000,7 +2207,7 @@
       </c>
       <c r="W3" s="28"/>
     </row>
-    <row r="4" spans="1:23" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="4" spans="1:23">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="37" t="s">
@@ -2068,7 +2275,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
     </row>
-    <row r="10" spans="1:23" ht="30">
+    <row ht="30" r="10" spans="1:23">
       <c r="A10" s="17" t="s">
         <v>69</v>
       </c>
@@ -2136,7 +2343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="11" spans="1:23">
       <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2412,7 @@
       </c>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="12" spans="1:23">
       <c r="A12" s="49"/>
       <c r="B12" s="12" t="s">
         <v>60</v>
@@ -2271,7 +2478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="13" spans="1:23">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="37" t="s">
@@ -2341,12 +2548,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
-    <hyperlink ref="P2" r:id="rId2" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
-    <hyperlink ref="J11" r:id="rId3" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
-    <hyperlink ref="P11" r:id="rId4" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId1" ref="J2" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId2" ref="P2" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId3" ref="J11" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId4" ref="P11" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="83">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -280,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="87">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +434,246 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -594,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -692,12 +932,72 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="21" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -878,8 +1178,48 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="86" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1532,19 +1872,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.24609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.50390625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.046875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.69140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.58984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.16015625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.1796875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.47265625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.87109375" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
@@ -1952,7 +2292,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1978,24 +2318,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.24609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.50390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.046875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.8046875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.8828125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="37.23046875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5859375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.8046875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.2265625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.8828125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="37.23046875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5859375" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="37.28515625" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
@@ -2430,13 +2770,13 @@
         <v>19</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>61</v>
@@ -2494,13 +2834,13 @@
         <v>19</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>24</v>

--- a/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Student Loan Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A560941F-C450-486B-AC66-53F826443DFC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D39A6E3D-085E-4CBD-86FA-F2AFA159D982}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12840"/>
+    <workbookView activeTab="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="14730"/>
   </bookViews>
   <sheets>
     <sheet name="StudentLoans" r:id="rId1" sheetId="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="83">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -96,181 +96,181 @@
     <t>DO NOT TOUCH AUTOMATION EMP 140</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>CourtOrders</t>
+  </si>
+  <si>
+    <t>AttachableEarningsForCouncilTax</t>
+  </si>
+  <si>
+    <t>DeductionTableUsed</t>
+  </si>
+  <si>
+    <t>AttachableEarningsTwo</t>
+  </si>
+  <si>
+    <t>COPaymentToThirdPartyAmount</t>
+  </si>
+  <si>
+    <t>TypeCODeductionAmount</t>
+  </si>
+  <si>
+    <t>England C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAY DETAIL 2</t>
+  </si>
+  <si>
+    <t>GBP 3,450.00</t>
+  </si>
+  <si>
+    <t>GBP 1,208.40</t>
+  </si>
+  <si>
+    <t>GBP 3,750.00</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 141</t>
+  </si>
+  <si>
+    <t>GBP 3,550.00</t>
+  </si>
+  <si>
+    <t>GBP 200.03</t>
+  </si>
+  <si>
+    <t>AttachableEarnings1</t>
+  </si>
+  <si>
+    <t>AttachableEarnings2</t>
+  </si>
+  <si>
+    <t>InitialDeductionAmount1</t>
+  </si>
+  <si>
+    <t>ProtectedEarnings1</t>
+  </si>
+  <si>
+    <t>Benefit2</t>
+  </si>
+  <si>
+    <t>COPaymentToThirdPartyAmount1</t>
+  </si>
+  <si>
+    <t>TypeCODeductionAmount1</t>
+  </si>
+  <si>
+    <t>InitialDeductionAmount2</t>
+  </si>
+  <si>
+    <t>AttachableEarnings3</t>
+  </si>
+  <si>
+    <t>ProtectedEarnings2</t>
+  </si>
+  <si>
+    <t>Benefit1</t>
+  </si>
+  <si>
+    <t>COPaymentToThirdPartyAmount2</t>
+  </si>
+  <si>
+    <t>TypeCODeductionAmount2</t>
+  </si>
+  <si>
+    <t>InitialDeductionAmount3</t>
+  </si>
+  <si>
+    <t>AttachableEarnings4</t>
+  </si>
+  <si>
+    <t>ProtectedEarnings3</t>
+  </si>
+  <si>
+    <t>GBP 2,800.00</t>
+  </si>
+  <si>
+    <t>GBP 3,000.00</t>
+  </si>
+  <si>
+    <t>GBP 2,850.00</t>
+  </si>
+  <si>
+    <t>GBP 2,900.00</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 142</t>
+  </si>
+  <si>
+    <t>Ben-384</t>
+  </si>
+  <si>
+    <t>Ben-383</t>
+  </si>
+  <si>
+    <t>GBP 3,600.00</t>
+  </si>
+  <si>
+    <t>GBP 3,500.00</t>
+  </si>
+  <si>
+    <t>GBP 186.00</t>
+  </si>
+  <si>
+    <t>GBP 3,114.00</t>
+  </si>
+  <si>
+    <t>GBP 3,314.00</t>
+  </si>
+  <si>
+    <t>GBP 186.53</t>
+  </si>
+  <si>
+    <t>Payrun November-2019</t>
+  </si>
+  <si>
+    <t>Payrun October-2019</t>
+  </si>
+  <si>
+    <t>GBP 127.00</t>
+  </si>
+  <si>
+    <t>GBP 2,873.00</t>
+  </si>
+  <si>
+    <t>GBP 127.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since there is a deduction amount of 2000 to be deducted in Nov monh hence in my openion Net pay = 1000 </t>
+  </si>
+  <si>
+    <t>This field is not getting displayed</t>
+  </si>
+  <si>
+    <t>This field is not being displayed in report</t>
+  </si>
+  <si>
+    <t>Student loan type is not getting displayed in the Report</t>
+  </si>
+  <si>
+    <t>due to studnt loan non display this field also not displayed</t>
+  </si>
+  <si>
+    <t>GBP 600.00</t>
+  </si>
+  <si>
+    <t>GBP 5,700.00</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>CourtOrders</t>
-  </si>
-  <si>
-    <t>AttachableEarningsForCouncilTax</t>
-  </si>
-  <si>
-    <t>DeductionTableUsed</t>
-  </si>
-  <si>
-    <t>AttachableEarningsTwo</t>
-  </si>
-  <si>
-    <t>COPaymentToThirdPartyAmount</t>
-  </si>
-  <si>
-    <t>TypeCODeductionAmount</t>
-  </si>
-  <si>
-    <t>England C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PAY DETAIL 2</t>
-  </si>
-  <si>
-    <t>GBP 3,450.00</t>
-  </si>
-  <si>
-    <t>GBP 1,208.40</t>
-  </si>
-  <si>
-    <t>GBP 3,750.00</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 141</t>
-  </si>
-  <si>
-    <t>GBP 3,550.00</t>
-  </si>
-  <si>
-    <t>GBP 200.03</t>
-  </si>
-  <si>
-    <t>AttachableEarnings1</t>
-  </si>
-  <si>
-    <t>AttachableEarnings2</t>
-  </si>
-  <si>
-    <t>InitialDeductionAmount1</t>
-  </si>
-  <si>
-    <t>ProtectedEarnings1</t>
-  </si>
-  <si>
-    <t>Benefit2</t>
-  </si>
-  <si>
-    <t>COPaymentToThirdPartyAmount1</t>
-  </si>
-  <si>
-    <t>TypeCODeductionAmount1</t>
-  </si>
-  <si>
-    <t>InitialDeductionAmount2</t>
-  </si>
-  <si>
-    <t>AttachableEarnings3</t>
-  </si>
-  <si>
-    <t>ProtectedEarnings2</t>
-  </si>
-  <si>
-    <t>Benefit1</t>
-  </si>
-  <si>
-    <t>COPaymentToThirdPartyAmount2</t>
-  </si>
-  <si>
-    <t>TypeCODeductionAmount2</t>
-  </si>
-  <si>
-    <t>InitialDeductionAmount3</t>
-  </si>
-  <si>
-    <t>AttachableEarnings4</t>
-  </si>
-  <si>
-    <t>ProtectedEarnings3</t>
-  </si>
-  <si>
-    <t>GBP 2,800.00</t>
-  </si>
-  <si>
-    <t>GBP 3,000.00</t>
-  </si>
-  <si>
-    <t>GBP 2,850.00</t>
-  </si>
-  <si>
-    <t>GBP 2,900.00</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 142</t>
-  </si>
-  <si>
-    <t>Ben-384</t>
-  </si>
-  <si>
-    <t>Ben-383</t>
-  </si>
-  <si>
-    <t>GBP 3,600.00</t>
-  </si>
-  <si>
-    <t>GBP 3,500.00</t>
-  </si>
-  <si>
-    <t>GBP 186.00</t>
-  </si>
-  <si>
-    <t>GBP 3,114.00</t>
-  </si>
-  <si>
-    <t>GBP 3,314.00</t>
-  </si>
-  <si>
-    <t>GBP 186.53</t>
-  </si>
-  <si>
-    <t>Payrun November-2019</t>
-  </si>
-  <si>
-    <t>Payrun October-2019</t>
-  </si>
-  <si>
-    <t>GBP 127.00</t>
-  </si>
-  <si>
-    <t>GBP 2,873.00</t>
-  </si>
-  <si>
-    <t>GBP 127.99</t>
-  </si>
-  <si>
     <t>GBP 1,000.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Since there is a deduction amount of 2000 to be deducted in Nov monh hence in my openion Net pay = 1000 </t>
-  </si>
-  <si>
     <t>GBP 4,354.84</t>
-  </si>
-  <si>
-    <t>This field is not getting displayed</t>
-  </si>
-  <si>
-    <t>This field is not being displayed in report</t>
-  </si>
-  <si>
-    <t>Student loan type is not getting displayed in the Report</t>
-  </si>
-  <si>
-    <t>due to studnt loan non display this field also not displayed</t>
-  </si>
-  <si>
-    <t>GBP 600.00</t>
-  </si>
-  <si>
-    <t>GBP 5,700.00</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="87">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,294 +434,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -834,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -920,84 +632,12 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="21" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1153,6 +793,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1170,56 +813,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="86" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1506,20 +1101,20 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.24609375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="98.640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.48828125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.87109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="98.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1562,13 +1157,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>22</v>
@@ -1577,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="2"/>
@@ -1593,13 +1188,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>15</v>
@@ -1608,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="2"/>
@@ -1622,22 +1217,22 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="2"/>
@@ -1707,18 +1302,18 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="15"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
@@ -1768,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -1797,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
@@ -1808,7 +1403,7 @@
       <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="11"/>
@@ -1821,10 +1416,10 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="13" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>19</v>
@@ -1835,7 +1430,7 @@
       <c r="G13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="63" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="16"/>
@@ -1846,7 +1441,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1866,25 +1461,25 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.24609375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.234375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.50390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.046875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.69140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.58984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.16015625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.1796875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.47265625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.87109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
@@ -1895,16 +1490,16 @@
   <sheetData>
     <row customHeight="1" ht="48" r="1" spans="1:14">
       <c r="A1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>20</v>
@@ -1913,19 +1508,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>21</v>
@@ -1939,28 +1534,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>17</v>
@@ -1980,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>15</v>
@@ -1992,10 +1587,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>15</v>
@@ -2004,15 +1599,15 @@
         <v>15</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="43" t="s">
+      <c r="L3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2022,36 +1617,36 @@
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2117,21 +1712,21 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
@@ -2144,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>20</v>
@@ -2156,19 +1751,19 @@
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="K10" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>21</v>
@@ -2182,28 +1777,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="I11" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>19</v>
@@ -2223,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>15</v>
@@ -2235,21 +1830,19 @@
         <v>15</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="43" t="s">
+      <c r="J12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="44"/>
@@ -2264,35 +1857,33 @@
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" s="13"/>
       <c r="H13" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="62" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2312,8 +1903,8 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2346,70 +1937,70 @@
   <sheetData>
     <row customHeight="1" ht="48" r="1" spans="1:23">
       <c r="A1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="S1" s="21" t="s">
         <v>21</v>
       </c>
       <c r="T1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="30.75" r="2" spans="1:23">
@@ -2417,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -2426,22 +2017,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="J2" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>8</v>
@@ -2453,13 +2044,13 @@
         <v>7</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="50" t="s">
         <v>14</v>
@@ -2471,19 +2062,19 @@
         <v>14</v>
       </c>
       <c r="T2" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" spans="1:23">
       <c r="A3" s="49"/>
       <c r="B3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>15</v>
@@ -2495,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>8</v>
@@ -2504,13 +2095,13 @@
         <v>15</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>15</v>
@@ -2522,28 +2113,28 @@
         <v>15</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R3" s="50" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U3" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V3" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W3" s="28"/>
     </row>
@@ -2551,64 +2142,62 @@
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Q4" s="37"/>
       <c r="R4" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V4" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2617,70 +2206,70 @@
     </row>
     <row ht="30" r="10" spans="1:23">
       <c r="A10" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="L10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="M10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="N10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="O10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="R10" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="T10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="V10" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row customHeight="1" ht="27.75" r="11" spans="1:23">
@@ -2688,16 +2277,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>19</v>
@@ -2706,13 +2295,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>8</v>
@@ -2724,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P11" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>7</v>
@@ -2739,50 +2328,50 @@
         <v>7</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W11" s="28"/>
     </row>
     <row customHeight="1" ht="30" r="12" spans="1:23">
       <c r="A12" s="49"/>
       <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>61</v>
-      </c>
       <c r="K12" s="54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>15</v>
@@ -2791,44 +2380,44 @@
         <v>7</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="54" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R12" s="50" t="s">
         <v>15</v>
       </c>
       <c r="S12" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T12" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U12" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V12" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="13" spans="1:23">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>19</v>
@@ -2837,49 +2426,49 @@
         <v>24</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="37" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="P13" s="46" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R13" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U13" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V13" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:23">
